--- a/components.xlsx
+++ b/components.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,324 +434,9 @@
         <v>description</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>jsonlint-mod</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>www.xxx.ccc</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Copyright (C) 2012 Zachary Carter</v>
-      </c>
-      <c r="E2" t="str">
-        <v>1.7.6</v>
-      </c>
-      <c r="G2" t="str">
-        <v>MIT AND GPL-3.0-only</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>jackspeak</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Copyright (c) 2024 jackspeak original author and authors</v>
-      </c>
-      <c r="E3" t="str">
-        <v>3.4.0</v>
-      </c>
-      <c r="G3" t="str">
-        <v>BlueOak-1.0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>jackspeak</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Copyright (c) 2024 jackspeak original author and authors</v>
-      </c>
-      <c r="E4" t="str">
-        <v>3.4.3</v>
-      </c>
-      <c r="G4" t="str">
-        <v>BlueOak-1.0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>traverse</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Copyright (c) 2014-present Sebastian McKenzie and other contributors</v>
-      </c>
-      <c r="E5" t="str">
-        <v>7.27.0</v>
-      </c>
-      <c r="G5" t="str">
-        <v>MIT</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>path-scurry</v>
-      </c>
-      <c r="B6" t="str">
-        <v>0</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Copyright (c) 2024 path-scurry original author and authors</v>
-      </c>
-      <c r="E6" t="str">
-        <v>1.11.1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>BlueOak-1.0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>jackspeak</v>
-      </c>
-      <c r="B7" t="str">
-        <v>0</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Copyright (c) 2024 jackspeak original author and authors</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2.3.6</v>
-      </c>
-      <c r="G7" t="str">
-        <v>BlueOak-1.0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>package-json-from-dist</v>
-      </c>
-      <c r="B8" t="str">
-        <v>0</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Copyright (c) 2024 package-json-from-dist original author and authors</v>
-      </c>
-      <c r="E8" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="G8" t="str">
-        <v>BlueOak-1.0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>tree-dump</v>
-      </c>
-      <c r="B9" t="str">
-        <v>0</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Copyright (c) 2024 tree-dump original author and authors</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Apache-2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>dompurify</v>
-      </c>
-      <c r="B10" t="str">
-        <v>0</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Copyright 2024 Dr.-Ing. Mario Heiderich, Cure53</v>
-      </c>
-      <c r="E10" t="str">
-        <v>2.4.7</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Apache-2.0 OR MPL-2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>caniuse-lite</v>
-      </c>
-      <c r="B11" t="str">
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Copyright (c) 2024 caniuse.com</v>
-      </c>
-      <c r="E11" t="str">
-        <v>1.0.30001636</v>
-      </c>
-      <c r="G11" t="str">
-        <v>CC-BY-4.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>caniuse-lite</v>
-      </c>
-      <c r="B12" t="str">
-        <v>0</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Copyright (c) 2024 caniuse.com</v>
-      </c>
-      <c r="E12" t="str">
-        <v>1.0.30001677</v>
-      </c>
-      <c r="G12" t="str">
-        <v>CC-BY-4.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>dompurify</v>
-      </c>
-      <c r="B13" t="str">
-        <v>0</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Copyright 2024 Dr.-Ing. Mario Heiderich, Cure53</v>
-      </c>
-      <c r="E13" t="str">
-        <v>2.5.5</v>
-      </c>
-      <c r="G13" t="str">
-        <v>Apache-2.0 OR MPL-2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>sortobject</v>
-      </c>
-      <c r="B14" t="str">
-        <v>0</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Copyright (c) 2012+ Bevry Pty Ltd</v>
-      </c>
-      <c r="E14" t="str">
-        <v>4.17.0</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Artistic-2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>caniuse-lite</v>
-      </c>
-      <c r="B15" t="str">
-        <v>0</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Copyright (c) 2024 caniuse.com</v>
-      </c>
-      <c r="E15" t="str">
-        <v>1.0.30001684</v>
-      </c>
-      <c r="G15" t="str">
-        <v>CC-BY-4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>caniuse-lite</v>
-      </c>
-      <c r="B16" t="str">
-        <v>0</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Copyright (c) 2024 caniuse.com</v>
-      </c>
-      <c r="E16" t="str">
-        <v>1.0.30001712</v>
-      </c>
-      <c r="G16" t="str">
-        <v>CC-BY-4.0</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>argparse</v>
-      </c>
-      <c r="B17" t="str">
-        <v>0</v>
-      </c>
-      <c r="D17" t="str" xml:space="preserve">
-        <v xml:space="preserve">Copyright (C) 1999-2001 Gregory P. Ward._x000d_
-Copyright (C) 2002, 2003 Python Software Foundation._x000d_
-Copyright (C) 2020 argparse.js authors_x000d_
-Originally written by Greg Ward &lt;gward@python.net&gt;</v>
-      </c>
-      <c r="E17" t="str">
-        <v>2.0.1</v>
-      </c>
-      <c r="F17" t="str">
-        <v>https://a.b/c</v>
-      </c>
-      <c r="G17" t="str">
-        <v>Python-2.0 AND others</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>dompurify</v>
-      </c>
-      <c r="B18" t="str">
-        <v>0</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Copyright 2024 Dr.-Ing. Mario Heiderich, Cure53</v>
-      </c>
-      <c r="E18" t="str">
-        <v>2.5.7</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Apache-2.0 OR MPL-2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>jszip</v>
-      </c>
-      <c r="B19" t="str">
-        <v>0</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Copyright (c) 2009-2023 Stuart Knightley, David Duponchel, and other contributors</v>
-      </c>
-      <c r="E19" t="str">
-        <v>3.10.1</v>
-      </c>
-      <c r="G19" t="str">
-        <v>MIT OR GPL-3.0-only</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/components.xlsx
+++ b/components.xlsx
@@ -1,58 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\文档\0工作资料\国浩工作资料\自有案件\常法——腾讯\99-tools\Attribution_Generator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55EE5F-7D78-4ED3-BA9A-3591D6B8FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="36525" yWindow="30" windowWidth="15150" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$254</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+  <si>
+    <t>component_name</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>modified_url</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>others_url</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>package_type</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>input_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monaco-editor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>echarts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>github-markdown-css</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>axios</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vuex</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>element-ui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright (c) 2016 - present Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2013-present, Yuxi (Evan) You</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright (c) 2021 echarts original author and authors</t>
+  </si>
+  <si>
+    <t>Copyright (c) Sindrè Sorhus &lt;sindresorhus@gmail.com&gt; (https://sindresorhus.com)</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2014-present Matt Zabriskie</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2015-present Evan You</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2016-present ElemFFE</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +207,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{8E57BF9E-80DE-4DCB-81C9-9C6637D04865}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,47 +609,1614 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>component_name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>modified</v>
-      </c>
-      <c r="C1" t="str">
-        <v>modified_url</v>
-      </c>
-      <c r="D1" t="str">
-        <v>copyright</v>
-      </c>
-      <c r="E1" t="str">
-        <v>version</v>
-      </c>
-      <c r="F1" t="str">
-        <v>others_url</v>
-      </c>
-      <c r="G1" t="str">
-        <v>license</v>
-      </c>
-      <c r="H1" t="str">
-        <v>package_type</v>
-      </c>
-      <c r="I1" t="str">
-        <v>repository</v>
-      </c>
-      <c r="J1" t="str">
-        <v>description</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="E10" s="6"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="E12" s="6"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="E14" s="6"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="E25" s="6"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="E26" s="6"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="E27" s="4"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="E28" s="6"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="E29" s="6"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="E30" s="6"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="E32" s="6"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="E33" s="6"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="E34" s="6"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="E35" s="6"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="E36" s="6"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="E37" s="6"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+      <c r="E38" s="6"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="E39" s="6"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="9"/>
+      <c r="B43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="4"/>
+      <c r="E48" s="6"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="4"/>
+      <c r="E52" s="6"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
+      <c r="B56" s="4"/>
+      <c r="E56" s="6"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
+      <c r="B57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
+      <c r="B58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="9"/>
+      <c r="B59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="9"/>
+      <c r="B61" s="4"/>
+      <c r="E61" s="6"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="9"/>
+      <c r="B62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="4"/>
+      <c r="E63" s="6"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
+      <c r="B64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="9"/>
+      <c r="B65" s="4"/>
+      <c r="E65" s="6"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="4"/>
+      <c r="E66" s="6"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="9"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="4"/>
+      <c r="E70" s="6"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="9"/>
+      <c r="B71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+      <c r="B72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="9"/>
+      <c r="B73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="10"/>
+      <c r="B74" s="4"/>
+      <c r="E74" s="6"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="9"/>
+      <c r="B75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="9"/>
+      <c r="B76" s="6"/>
+      <c r="E76" s="4"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="9"/>
+      <c r="B77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="9"/>
+      <c r="B78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="9"/>
+      <c r="B79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="9"/>
+      <c r="B82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="9"/>
+      <c r="B83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="9"/>
+      <c r="B84" s="4"/>
+      <c r="E84" s="6"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="9"/>
+      <c r="B85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="9"/>
+      <c r="B86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="10"/>
+      <c r="B87" s="6"/>
+      <c r="E87" s="4"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="9"/>
+      <c r="B88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="9"/>
+      <c r="B89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="9"/>
+      <c r="B92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="9"/>
+      <c r="B93" s="6"/>
+      <c r="E93" s="4"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="9"/>
+      <c r="B94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="9"/>
+      <c r="B95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="9"/>
+      <c r="B96" s="6"/>
+      <c r="E96" s="4"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="E97" s="4"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="9"/>
+      <c r="B98" s="6"/>
+      <c r="E98" s="4"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="9"/>
+      <c r="B99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="9"/>
+      <c r="B100" s="4"/>
+      <c r="E100" s="6"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="9"/>
+      <c r="B101" s="4"/>
+      <c r="E101" s="6"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="9"/>
+      <c r="B102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="10"/>
+      <c r="B103" s="6"/>
+      <c r="E103" s="4"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="9"/>
+      <c r="B104" s="6"/>
+      <c r="E104" s="4"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="9"/>
+      <c r="B105" s="6"/>
+      <c r="E105" s="4"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="9"/>
+      <c r="B106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="9"/>
+      <c r="B107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="10"/>
+      <c r="B108" s="4"/>
+      <c r="E108" s="6"/>
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="9"/>
+      <c r="B109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="9"/>
+      <c r="B111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="9"/>
+      <c r="B112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="9"/>
+      <c r="B113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="9"/>
+      <c r="B114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="9"/>
+      <c r="B115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="9"/>
+      <c r="B116" s="4"/>
+      <c r="E116" s="6"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="9"/>
+      <c r="B117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="9"/>
+      <c r="B118" s="4"/>
+      <c r="E118" s="6"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="9"/>
+      <c r="B119" s="4"/>
+      <c r="E119" s="6"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="9"/>
+      <c r="B120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="9"/>
+      <c r="B121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="9"/>
+      <c r="B122" s="6"/>
+      <c r="E122" s="4"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="9"/>
+      <c r="B123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="9"/>
+      <c r="B124" s="6"/>
+      <c r="E124" s="4"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="9"/>
+      <c r="B125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="9"/>
+      <c r="B126" s="6"/>
+      <c r="E126" s="4"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="9"/>
+      <c r="B127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="9"/>
+      <c r="B128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="9"/>
+      <c r="B129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="9"/>
+      <c r="B130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="9"/>
+      <c r="B131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="9"/>
+      <c r="B132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="9"/>
+      <c r="B133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="9"/>
+      <c r="B134" s="6"/>
+      <c r="E134" s="4"/>
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="9"/>
+      <c r="B135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="9"/>
+      <c r="B136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="9"/>
+      <c r="B137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="9"/>
+      <c r="B138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="9"/>
+      <c r="B139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="9"/>
+      <c r="B140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="9"/>
+      <c r="B141" s="6"/>
+      <c r="E141" s="4"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="9"/>
+      <c r="B142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="9"/>
+      <c r="B143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="9"/>
+      <c r="B144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="9"/>
+      <c r="B145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="9"/>
+      <c r="B146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="9"/>
+      <c r="B147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="9"/>
+      <c r="B148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="9"/>
+      <c r="B149" s="6"/>
+      <c r="E149" s="4"/>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="9"/>
+      <c r="B150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="9"/>
+      <c r="B151" s="6"/>
+      <c r="E151" s="4"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="9"/>
+      <c r="B152" s="4"/>
+      <c r="E152" s="6"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="9"/>
+      <c r="B153" s="6"/>
+      <c r="E153" s="4"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="9"/>
+      <c r="B154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="9"/>
+      <c r="B155" s="4"/>
+      <c r="E155" s="6"/>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A156" s="9"/>
+      <c r="B156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A157" s="9"/>
+      <c r="B157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A158" s="9"/>
+      <c r="B158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="9"/>
+      <c r="B159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A160" s="9"/>
+      <c r="B160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A161" s="9"/>
+      <c r="B161" s="6"/>
+      <c r="E161" s="4"/>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A162" s="9"/>
+      <c r="B162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A163" s="9"/>
+      <c r="B163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A164" s="9"/>
+      <c r="B164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A165" s="9"/>
+      <c r="B165" s="4"/>
+      <c r="E165" s="6"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A166" s="9"/>
+      <c r="B166" s="4"/>
+      <c r="E166" s="6"/>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A167" s="9"/>
+      <c r="B167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A168" s="9"/>
+      <c r="B168" s="6"/>
+      <c r="E168" s="4"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A169" s="9"/>
+      <c r="B169" s="6"/>
+      <c r="E169" s="4"/>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A170" s="9"/>
+      <c r="B170" s="6"/>
+      <c r="E170" s="4"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A171" s="9"/>
+      <c r="B171" s="6"/>
+      <c r="E171" s="4"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A172" s="9"/>
+      <c r="B172" s="6"/>
+      <c r="E172" s="4"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A173" s="9"/>
+      <c r="B173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A174" s="9"/>
+      <c r="B174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A175" s="9"/>
+      <c r="B175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A176" s="9"/>
+      <c r="B176" s="6"/>
+      <c r="E176" s="4"/>
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A177" s="9"/>
+      <c r="B177" s="4"/>
+      <c r="E177" s="6"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A178" s="9"/>
+      <c r="B178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A179" s="9"/>
+      <c r="B179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A180" s="9"/>
+      <c r="B180" s="6"/>
+      <c r="E180" s="4"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A181" s="9"/>
+      <c r="B181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A182" s="9"/>
+      <c r="B182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A183" s="9"/>
+      <c r="B183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A184" s="9"/>
+      <c r="B184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A185" s="9"/>
+      <c r="B185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A186" s="9"/>
+      <c r="B186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A187" s="9"/>
+      <c r="B187" s="6"/>
+      <c r="E187" s="4"/>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A188" s="9"/>
+      <c r="B188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A189" s="9"/>
+      <c r="B189" s="6"/>
+      <c r="E189" s="4"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A190" s="9"/>
+      <c r="B190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A191" s="9"/>
+      <c r="B191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A192" s="9"/>
+      <c r="B192" s="6"/>
+      <c r="E192" s="4"/>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A193" s="9"/>
+      <c r="B193" s="4"/>
+      <c r="E193" s="6"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A194" s="9"/>
+      <c r="B194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A195" s="9"/>
+      <c r="B195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A196" s="9"/>
+      <c r="B196" s="6"/>
+      <c r="E196" s="4"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A197" s="9"/>
+      <c r="B197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A198" s="10"/>
+      <c r="B198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A199" s="9"/>
+      <c r="B199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A200" s="10"/>
+      <c r="B200" s="4"/>
+      <c r="E200" s="6"/>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A201" s="9"/>
+      <c r="B201" s="6"/>
+      <c r="E201" s="4"/>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A202" s="9"/>
+      <c r="B202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A203" s="9"/>
+      <c r="B203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A204" s="9"/>
+      <c r="B204" s="6"/>
+      <c r="E204" s="4"/>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A205" s="9"/>
+      <c r="B205" s="6"/>
+      <c r="E205" s="4"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A206" s="9"/>
+      <c r="B206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A207" s="9"/>
+      <c r="B207" s="6"/>
+      <c r="E207" s="4"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A208" s="9"/>
+      <c r="B208" s="6"/>
+      <c r="E208" s="4"/>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A209" s="9"/>
+      <c r="B209" s="6"/>
+      <c r="E209" s="4"/>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A210" s="9"/>
+      <c r="B210" s="6"/>
+      <c r="E210" s="4"/>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A211" s="9"/>
+      <c r="B211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A212" s="9"/>
+      <c r="B212" s="6"/>
+      <c r="E212" s="4"/>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A213" s="9"/>
+      <c r="B213" s="6"/>
+      <c r="E213" s="4"/>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A214" s="10"/>
+      <c r="B214" s="7"/>
+      <c r="E214" s="8"/>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A215" s="9"/>
+      <c r="B215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A216" s="9"/>
+      <c r="B216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A217" s="9"/>
+      <c r="B217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A218" s="9"/>
+      <c r="B218" s="7"/>
+      <c r="E218" s="8"/>
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A219" s="9"/>
+      <c r="B219" s="7"/>
+      <c r="E219" s="8"/>
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A220" s="9"/>
+      <c r="B220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A221" s="9"/>
+      <c r="B221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A222" s="9"/>
+      <c r="B222" s="7"/>
+      <c r="E222" s="8"/>
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A223" s="9"/>
+      <c r="B223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A224" s="9"/>
+      <c r="B224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A225" s="9"/>
+      <c r="B225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A226" s="9"/>
+      <c r="B226" s="7"/>
+      <c r="E226" s="8"/>
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A227" s="9"/>
+      <c r="B227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A228" s="10"/>
+      <c r="B228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A229" s="9"/>
+      <c r="B229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A230" s="9"/>
+      <c r="B230" s="7"/>
+      <c r="E230" s="8"/>
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A231" s="9"/>
+      <c r="B231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A232" s="9"/>
+      <c r="B232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A233" s="9"/>
+      <c r="B233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A234" s="9"/>
+      <c r="B234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A235" s="9"/>
+      <c r="B235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A236" s="9"/>
+      <c r="B236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A237" s="9"/>
+      <c r="B237" s="7"/>
+      <c r="E237" s="8"/>
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A238" s="9"/>
+      <c r="B238" s="7"/>
+      <c r="E238" s="8"/>
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A239" s="9"/>
+      <c r="B239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A240" s="9"/>
+      <c r="B240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A241" s="9"/>
+      <c r="B241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A242" s="9"/>
+      <c r="B242" s="8"/>
+      <c r="E242" s="7"/>
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A243" s="9"/>
+      <c r="B243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A244" s="9"/>
+      <c r="B244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A245" s="9"/>
+      <c r="B245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A246" s="9"/>
+      <c r="B246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A247" s="9"/>
+      <c r="B247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A248" s="9"/>
+      <c r="B248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A249" s="9"/>
+      <c r="B249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A250" s="10"/>
+      <c r="B250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A251" s="9"/>
+      <c r="B251" s="7"/>
+      <c r="E251" s="8"/>
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A252" s="9"/>
+      <c r="B252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A253" s="9"/>
+      <c r="B253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A254" s="9"/>
+      <c r="B254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="H254" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K254" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J1"/>
+    <ignoredError sqref="B1:K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/components.xlsx
+++ b/components.xlsx
@@ -407,7 +407,7 @@
         <v>input_url</v>
       </c>
       <c r="B1" t="str">
-        <v>component_name</v>
+        <v>name</v>
       </c>
       <c r="C1" t="str">
         <v>modified</v>
@@ -450,8 +450,14 @@
       <c r="E2" t="str">
         <v>Copyright (c) 2014 Athan Reines.</v>
       </c>
+      <c r="F2" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H2" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J2" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="3">
@@ -467,8 +473,14 @@
       <c r="E3" t="str">
         <v>Copyright (c) 2012 TJ Holowaychuk</v>
       </c>
+      <c r="F3" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H3" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J3" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="4">
@@ -484,8 +496,14 @@
       <c r="E4" t="str">
         <v>Copyright (c) 2021-present TDesign</v>
       </c>
+      <c r="F4" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H4" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J4" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="5">
@@ -501,8 +519,14 @@
       <c r="E5" t="str">
         <v>Copyright (c) 2017 Sophie Alpert</v>
       </c>
+      <c r="F5" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H5" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J5" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="6">
@@ -518,8 +542,14 @@
       <c r="E6" t="str">
         <v>Copyright Node.js contributors. All rights reserved.</v>
       </c>
+      <c r="F6" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H6" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J6" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="7">
@@ -535,8 +565,14 @@
       <c r="E7" t="str">
         <v>Copyright (c) 2018-present, Yuxi (Evan) You and Vue contributors</v>
       </c>
+      <c r="F7" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H7" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J7" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="8">
@@ -552,8 +588,14 @@
       <c r="E8" t="str">
         <v>Copyright (c) 2021-present TDesign</v>
       </c>
+      <c r="F8" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H8" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J8" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="9">
@@ -569,8 +611,14 @@
       <c r="E9" t="str">
         <v>Copyright (c) 2021-present TDesign</v>
       </c>
+      <c r="F9" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H9" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J9" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="10">
@@ -586,8 +634,14 @@
       <c r="E10" t="str">
         <v>Copyright (c) 2012 Jeremy Selier</v>
       </c>
+      <c r="F10" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H10" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J10" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="11">
@@ -603,8 +657,14 @@
       <c r="E11" t="str">
         <v>Copyright (c) 2013 Dustin Diaz</v>
       </c>
+      <c r="F11" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H11" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J11" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="12">
@@ -620,8 +680,14 @@
       <c r="E12" t="str">
         <v>Copyright (c) 2021-present TDesign</v>
       </c>
+      <c r="F12" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H12" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J12" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="13">
@@ -637,8 +703,14 @@
       <c r="E13" t="str">
         <v>Copyright (c) 2012 Raynos.</v>
       </c>
+      <c r="F13" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H13" t="str">
         <v>MIT</v>
+      </c>
+      <c r="J13" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
@@ -655,8 +727,14 @@
         <v xml:space="preserve">Copyright (c) 2013, Francois-Guillaume Ribreau &lt;node@fgribreau.com&gt;_x000d_
 All rights reserved.</v>
       </c>
+      <c r="F14" t="str">
+        <v>1.0.1</v>
+      </c>
       <c r="H14" t="str">
         <v>BSD-3-Clause AND Artistic-1.0-Perl</v>
+      </c>
+      <c r="J14" t="str">
+        <v>test_url.com</v>
       </c>
     </row>
   </sheetData>

--- a/components.xlsx
+++ b/components.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,307 +439,75 @@
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>svg-tags</v>
+        <v>transformers</v>
       </c>
       <c r="C2" t="str">
-        <v>True</v>
-      </c>
-      <c r="D2" t="str">
-        <v>test_url.com</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>Copyright (c) 2014 Athan Reines.</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1.0.1</v>
+        <v>Copyright 2018- The Hugging Face team. All rights reserved.</v>
       </c>
       <c r="H2" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J2" t="str">
-        <v>test_url.com</v>
+        <v>Apache-2.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="B3" t="str">
-        <v>only</v>
-      </c>
-      <c r="C3" t="str">
-        <v>True</v>
-      </c>
-      <c r="D3" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Copyright (c) 2012 TJ Holowaychuk</v>
-      </c>
-      <c r="F3" t="str">
-        <v>1.0.1</v>
+        <v>torch</v>
+      </c>
+      <c r="E3" t="str" xml:space="preserve">
+        <v xml:space="preserve">From PyTorch:_x000d_
+_x000d_
+Copyright (c) 2016-     Facebook, Inc            (Adam Paszke)_x000d_
+Copyright (c) 2014-     Facebook, Inc            (Soumith Chintala)_x000d_
+Copyright (c) 2011-2014 Idiap Research Institute (Ronan Collobert)_x000d_
+Copyright (c) 2012-2014 Deepmind Technologies    (Koray Kavukcuoglu)_x000d_
+Copyright (c) 2011-2012 NEC Laboratories America (Koray Kavukcuoglu)_x000d_
+Copyright (c) 2011-2013 NYU                      (Clement Farabet)_x000d_
+Copyright (c) 2006-2010 NEC Laboratories America (Ronan Collobert, Leon Bottou, Iain Melvin, Jason Weston)_x000d_
+Copyright (c) 2006      Idiap Research Institute (Samy Bengio)_x000d_
+Copyright (c) 2001-2004 Idiap Research Institute (Ronan Collobert, Samy Bengio, Johnny Mariethoz)_x000d_
+_x000d_
+From Caffe2:_x000d_
+_x000d_
+Copyright (c) 2016-present, Facebook Inc. All rights reserved._x000d_
+_x000d_
+All contributions by Facebook:_x000d_
+Copyright (c) 2016 Facebook Inc._x000d_
+_x000d_
+All contributions by Google:_x000d_
+Copyright (c) 2015 Google Inc._x000d_
+All rights reserved._x000d_
+_x000d_
+All contributions by Yangqing Jia:_x000d_
+Copyright (c) 2015 Yangqing Jia_x000d_
+All rights reserved._x000d_
+_x000d_
+All contributions by Kakao Brain:_x000d_
+Copyright 2019-2020 Kakao Brain_x000d_
+_x000d_
+All contributions by Cruise LLC:_x000d_
+Copyright (c) 2022 Cruise LLC._x000d_
+All rights reserved._x000d_
+_x000d_
+All contributions by Arm:_x000d_
+Copyright (c) 2021, 2023-2024 Arm Limited and/or its affiliates_x000d_
+_x000d_
+All contributions from Caffe:_x000d_
+Copyright(c) 2013, 2014, 2015, the respective contributors_x000d_
+All rights reserved._x000d_
+_x000d_
+All other contributions:_x000d_
+Copyright(c) 2015, 2016 the respective contributors_x000d_
+All rights reserved.</v>
       </c>
       <c r="H3" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J3" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="str">
-        <v>tdesign-icons-vue</v>
-      </c>
-      <c r="C4" t="str">
-        <v>True</v>
-      </c>
-      <c r="D4" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Copyright (c) 2021-present TDesign</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J4" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>match-at</v>
-      </c>
-      <c r="C5" t="str">
-        <v>True</v>
-      </c>
-      <c r="D5" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Copyright (c) 2017 Sophie Alpert</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J5" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>querystring-es3</v>
-      </c>
-      <c r="C6" t="str">
-        <v>True</v>
-      </c>
-      <c r="D6" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Copyright Node.js contributors. All rights reserved.</v>
-      </c>
-      <c r="F6" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J6" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>compiler-sfc</v>
-      </c>
-      <c r="C7" t="str">
-        <v>True</v>
-      </c>
-      <c r="D7" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Copyright (c) 2018-present, Yuxi (Evan) You and Vue contributors</v>
-      </c>
-      <c r="F7" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H7" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J7" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>tdesign-icons-vue</v>
-      </c>
-      <c r="C8" t="str">
-        <v>True</v>
-      </c>
-      <c r="D8" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Copyright (c) 2021-present TDesign</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H8" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J8" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>tdesign-icons-vue</v>
-      </c>
-      <c r="C9" t="str">
-        <v>True</v>
-      </c>
-      <c r="D9" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Copyright (c) 2021-present TDesign</v>
-      </c>
-      <c r="F9" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H9" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J9" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="str">
-        <v>uslug</v>
-      </c>
-      <c r="C10" t="str">
-        <v>True</v>
-      </c>
-      <c r="D10" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Copyright (c) 2012 Jeremy Selier</v>
-      </c>
-      <c r="F10" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H10" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J10" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="str">
-        <v>domready</v>
-      </c>
-      <c r="C11" t="str">
-        <v>True</v>
-      </c>
-      <c r="D11" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Copyright (c) 2013 Dustin Diaz</v>
-      </c>
-      <c r="F11" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H11" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J11" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>tdesign-icons-vue</v>
-      </c>
-      <c r="C12" t="str">
-        <v>True</v>
-      </c>
-      <c r="D12" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Copyright (c) 2021-present TDesign</v>
-      </c>
-      <c r="F12" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H12" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J12" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="str">
-        <v>console-browserify</v>
-      </c>
-      <c r="C13" t="str">
-        <v>True</v>
-      </c>
-      <c r="D13" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Copyright (c) 2012 Raynos.</v>
-      </c>
-      <c r="F13" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H13" t="str">
-        <v>MIT</v>
-      </c>
-      <c r="J13" t="str">
-        <v>test_url.com</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="B14" t="str">
-        <v>unidecode</v>
-      </c>
-      <c r="C14" t="str">
-        <v>True</v>
-      </c>
-      <c r="D14" t="str">
-        <v>test_url.com</v>
-      </c>
-      <c r="E14" t="str" xml:space="preserve">
-        <v xml:space="preserve">Copyright (c) 2013, Francois-Guillaume Ribreau &lt;node@fgribreau.com&gt;_x000d_
-All rights reserved.</v>
-      </c>
-      <c r="F14" t="str">
-        <v>1.0.1</v>
-      </c>
-      <c r="H14" t="str">
-        <v>BSD-3-Clause AND Artistic-1.0-Perl</v>
-      </c>
-      <c r="J14" t="str">
-        <v>test_url.com</v>
+        <v>BSD-3-Clause</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/components.xlsx
+++ b/components.xlsx
@@ -1,46 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\文档\0工作资料\国浩工作资料\自有案件\常法——腾讯\99-tools\Attribution_Generator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0CEE31-5BEE-4D8E-B33B-699252994464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+  <si>
+    <t>input_url</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>modified_url</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>others_url</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>package_type</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2014-present Matt Zabriskie &amp; Collaborators</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright (c) 2018 Jed Watson</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2018-present, iamkun</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2023 i18next</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2024 i18next</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2018 Copyright 2018 Klaus Hartl, Fagner Brack, GitHub Contributors</t>
+  </si>
+  <si>
+    <t>Copyright © 2011-2012, Paul Vorbach.
+Copyright © 2009, Jeff Mott.</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2024 Vercel, Inc.</t>
+  </si>
+  <si>
+    <t>Copyright (c) Facebook, Inc. and
+its affiliates.</t>
+  </si>
+  <si>
+    <t>Copyright (c) Facebook, Inc. and its affiliates.</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2021-present TDesign</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2019 Paul Henschel</t>
+  </si>
+  <si>
+    <t>axios</t>
+  </si>
+  <si>
+    <t>classnames</t>
+  </si>
+  <si>
+    <t>dayjs</t>
+  </si>
+  <si>
+    <t>i18next</t>
+  </si>
+  <si>
+    <t>i18next-http-backend</t>
+  </si>
+  <si>
+    <t>js-cookie</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>react-dom</t>
+  </si>
+  <si>
+    <t>react-i18next</t>
+  </si>
+  <si>
+    <t>tdesign-react</t>
+  </si>
+  <si>
+    <t>zustand</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,14 +186,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,118 +532,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>input_url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>modified</v>
-      </c>
-      <c r="D1" t="str">
-        <v>modified_url</v>
-      </c>
-      <c r="E1" t="str">
-        <v>copyright</v>
-      </c>
-      <c r="F1" t="str">
-        <v>version</v>
-      </c>
-      <c r="G1" t="str">
-        <v>others_url</v>
-      </c>
-      <c r="H1" t="str">
-        <v>license</v>
-      </c>
-      <c r="I1" t="str">
-        <v>package_type</v>
-      </c>
-      <c r="J1" t="str">
-        <v>repository</v>
-      </c>
-      <c r="K1" t="str">
-        <v>description</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>transformers</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <v>Copyright 2018- The Hugging Face team. All rights reserved.</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Apache-2.0</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="B3" t="str">
-        <v>torch</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">From PyTorch:_x000d_
-_x000d_
-Copyright (c) 2016-     Facebook, Inc            (Adam Paszke)_x000d_
-Copyright (c) 2014-     Facebook, Inc            (Soumith Chintala)_x000d_
-Copyright (c) 2011-2014 Idiap Research Institute (Ronan Collobert)_x000d_
-Copyright (c) 2012-2014 Deepmind Technologies    (Koray Kavukcuoglu)_x000d_
-Copyright (c) 2011-2012 NEC Laboratories America (Koray Kavukcuoglu)_x000d_
-Copyright (c) 2011-2013 NYU                      (Clement Farabet)_x000d_
-Copyright (c) 2006-2010 NEC Laboratories America (Ronan Collobert, Leon Bottou, Iain Melvin, Jason Weston)_x000d_
-Copyright (c) 2006      Idiap Research Institute (Samy Bengio)_x000d_
-Copyright (c) 2001-2004 Idiap Research Institute (Ronan Collobert, Samy Bengio, Johnny Mariethoz)_x000d_
-_x000d_
-From Caffe2:_x000d_
-_x000d_
-Copyright (c) 2016-present, Facebook Inc. All rights reserved._x000d_
-_x000d_
-All contributions by Facebook:_x000d_
-Copyright (c) 2016 Facebook Inc._x000d_
-_x000d_
-All contributions by Google:_x000d_
-Copyright (c) 2015 Google Inc._x000d_
-All rights reserved._x000d_
-_x000d_
-All contributions by Yangqing Jia:_x000d_
-Copyright (c) 2015 Yangqing Jia_x000d_
-All rights reserved._x000d_
-_x000d_
-All contributions by Kakao Brain:_x000d_
-Copyright 2019-2020 Kakao Brain_x000d_
-_x000d_
-All contributions by Cruise LLC:_x000d_
-Copyright (c) 2022 Cruise LLC._x000d_
-All rights reserved._x000d_
-_x000d_
-All contributions by Arm:_x000d_
-Copyright (c) 2021, 2023-2024 Arm Limited and/or its affiliates_x000d_
-_x000d_
-All contributions from Caffe:_x000d_
-Copyright(c) 2013, 2014, 2015, the respective contributors_x000d_
-All rights reserved._x000d_
-_x000d_
-All other contributions:_x000d_
-Copyright(c) 2015, 2016 the respective contributors_x000d_
-All rights reserved.</v>
-      </c>
-      <c r="H3" t="str">
-        <v>BSD-3-Clause</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError sqref="A1:K1 A2:A3 I2:K3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/components.xlsx
+++ b/components.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\文档\0工作资料\国浩工作资料\自有案件\常法——腾讯\99-tools\Attribution_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0CEE31-5BEE-4D8E-B33B-699252994464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1F6645-71F5-456F-9C78-B71D99E7EC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$693</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>input_url</t>
   </si>
@@ -40,110 +56,55 @@
     <t>version</t>
   </si>
   <si>
-    <t>others_url</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
     <t>package_type</t>
-  </si>
-  <si>
-    <t>repository</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>BSD-3-Clause</t>
+    <t>others_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MIT</t>
+    <t>repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright (c) 2014-present Matt Zabriskie &amp; Collaborators</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright (c) 2018 Jed Watson</t>
+    <t>Apache-2.0</t>
   </si>
   <si>
-    <t>Copyright (c) 2018-present, iamkun</t>
+    <t>transformers</t>
   </si>
   <si>
-    <t>Copyright (c) 2023 i18next</t>
+    <t>FastChat</t>
   </si>
   <si>
-    <t>Copyright (c) 2024 i18next</t>
+    <t>LLaMA-Factory</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright (c) 2018 Copyright 2018 Klaus Hartl, Fagner Brack, GitHub Contributors</t>
+    <t>Copyright 2018- The Hugging Face team. All rights reserved.</t>
   </si>
   <si>
-    <t>Copyright © 2011-2012, Paul Vorbach.
-Copyright © 2009, Jeff Mott.</t>
+    <t>Apache-2.0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright (c) 2024 Vercel, Inc.</t>
+    <t>Copyright (c) 2024 FastChat original author and authors</t>
   </si>
   <si>
-    <t>Copyright (c) Facebook, Inc. and
-its affiliates.</t>
-  </si>
-  <si>
-    <t>Copyright (c) Facebook, Inc. and its affiliates.</t>
-  </si>
-  <si>
-    <t>Copyright (c) 2021-present TDesign</t>
-  </si>
-  <si>
-    <t>Copyright (c) 2019 Paul Henschel</t>
-  </si>
-  <si>
-    <t>axios</t>
-  </si>
-  <si>
-    <t>classnames</t>
-  </si>
-  <si>
-    <t>dayjs</t>
-  </si>
-  <si>
-    <t>i18next</t>
-  </si>
-  <si>
-    <t>i18next-http-backend</t>
-  </si>
-  <si>
-    <t>js-cookie</t>
-  </si>
-  <si>
-    <t>md5</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>react-dom</t>
-  </si>
-  <si>
-    <t>react-i18next</t>
-  </si>
-  <si>
-    <t>tdesign-react</t>
-  </si>
-  <si>
-    <t>zustand</t>
+    <t>Copyright (c) 2025 LLaMA-Factory original author and authors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,22 +120,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,21 +221,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -533,15 +658,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,181 +684,3582 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>25</v>
+    <row r="2" spans="1:11" ht="140" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="112" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="C3" s="17" t="s">
+        <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>26</v>
+      <c r="D3" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
+      <c r="E4">
+        <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="6"/>
+      <c r="C117" s="7"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="6"/>
+      <c r="C135" s="7"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="6"/>
+      <c r="C141" s="7"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="6"/>
+      <c r="C143" s="7"/>
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="C145" s="7"/>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="6"/>
+      <c r="C159" s="7"/>
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="6"/>
+      <c r="C165" s="7"/>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="6"/>
+      <c r="C167" s="7"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" s="6"/>
+      <c r="C181" s="7"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="6"/>
+      <c r="C183" s="7"/>
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="7"/>
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="6"/>
+      <c r="C185" s="7"/>
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="6"/>
+      <c r="C186" s="7"/>
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="6"/>
+      <c r="C187" s="7"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="6"/>
+      <c r="C189" s="7"/>
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="6"/>
+      <c r="C190" s="7"/>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="6"/>
+      <c r="C191" s="7"/>
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="7"/>
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="6"/>
+      <c r="C194" s="7"/>
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="6"/>
+      <c r="C197" s="7"/>
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="6"/>
+      <c r="C198" s="7"/>
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="6"/>
+      <c r="C199" s="7"/>
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="6"/>
+      <c r="C201" s="7"/>
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="6"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="6"/>
+      <c r="C203" s="7"/>
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="6"/>
+      <c r="C204" s="7"/>
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="6"/>
+      <c r="C205" s="7"/>
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="6"/>
+      <c r="C206" s="7"/>
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="6"/>
+      <c r="C207" s="7"/>
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="7"/>
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="6"/>
+      <c r="C209" s="7"/>
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="6"/>
+      <c r="C210" s="7"/>
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="6"/>
+      <c r="C211" s="7"/>
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="6"/>
+      <c r="C212" s="7"/>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="6"/>
+      <c r="C213" s="7"/>
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="6"/>
+      <c r="C214" s="7"/>
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="6"/>
+      <c r="C215" s="7"/>
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="7"/>
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="6"/>
+      <c r="C217" s="7"/>
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="6"/>
+      <c r="C218" s="7"/>
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="6"/>
+      <c r="C219" s="7"/>
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="6"/>
+      <c r="C220" s="7"/>
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="6"/>
+      <c r="C221" s="7"/>
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="6"/>
+      <c r="C223" s="7"/>
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="7"/>
+      <c r="J224" s="5"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" s="6"/>
+      <c r="C225" s="7"/>
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="6"/>
+      <c r="C227" s="7"/>
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
+      <c r="J229" s="5"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
+      <c r="J230" s="5"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="6"/>
+      <c r="C231" s="7"/>
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="7"/>
+      <c r="J232" s="5"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+      <c r="C233" s="7"/>
+      <c r="J233" s="5"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+      <c r="C234" s="7"/>
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+      <c r="C235" s="7"/>
+      <c r="J235" s="5"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="7"/>
+      <c r="J236" s="5"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="7"/>
+      <c r="J237" s="5"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="7"/>
+      <c r="J238" s="5"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="7"/>
+      <c r="J239" s="5"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="7"/>
+      <c r="J240" s="5"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="7"/>
+      <c r="J241" s="5"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="7"/>
+      <c r="J242" s="5"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="7"/>
+      <c r="J243" s="5"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
+      <c r="J244" s="5"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="7"/>
+      <c r="J245" s="5"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="7"/>
+      <c r="J246" s="5"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="7"/>
+      <c r="J247" s="5"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="7"/>
+      <c r="J248" s="5"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="7"/>
+      <c r="J249" s="5"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="7"/>
+      <c r="J250" s="5"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251" s="6"/>
+      <c r="C251" s="7"/>
+      <c r="J251" s="5"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252" s="6"/>
+      <c r="C252" s="7"/>
+      <c r="J252" s="5"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="7"/>
+      <c r="J253" s="5"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="7"/>
+      <c r="J254" s="5"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B255" s="6"/>
+      <c r="C255" s="7"/>
+      <c r="J255" s="5"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="7"/>
+      <c r="J256" s="5"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="7"/>
+      <c r="J257" s="5"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="7"/>
+      <c r="J258" s="5"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="7"/>
+      <c r="J259" s="5"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="7"/>
+      <c r="J260" s="5"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="7"/>
+      <c r="J261" s="5"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B262" s="6"/>
+      <c r="C262" s="7"/>
+      <c r="J262" s="5"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B263" s="6"/>
+      <c r="C263" s="7"/>
+      <c r="J263" s="5"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B264" s="6"/>
+      <c r="C264" s="7"/>
+      <c r="J264" s="5"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B265" s="6"/>
+      <c r="C265" s="7"/>
+      <c r="J265" s="5"/>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B266" s="6"/>
+      <c r="C266" s="7"/>
+      <c r="J266" s="5"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B267" s="6"/>
+      <c r="C267" s="7"/>
+      <c r="J267" s="5"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B268" s="6"/>
+      <c r="C268" s="7"/>
+      <c r="J268" s="5"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B269" s="6"/>
+      <c r="C269" s="7"/>
+      <c r="J269" s="5"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B270" s="6"/>
+      <c r="C270" s="7"/>
+      <c r="J270" s="5"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B271" s="6"/>
+      <c r="C271" s="7"/>
+      <c r="J271" s="5"/>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B272" s="6"/>
+      <c r="C272" s="7"/>
+      <c r="J272" s="5"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B273" s="6"/>
+      <c r="C273" s="7"/>
+      <c r="J273" s="5"/>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B274" s="6"/>
+      <c r="C274" s="7"/>
+      <c r="J274" s="5"/>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B275" s="6"/>
+      <c r="C275" s="7"/>
+      <c r="J275" s="5"/>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B276" s="6"/>
+      <c r="C276" s="7"/>
+      <c r="J276" s="5"/>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B277" s="6"/>
+      <c r="C277" s="7"/>
+      <c r="J277" s="5"/>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B278" s="6"/>
+      <c r="C278" s="7"/>
+      <c r="J278" s="5"/>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B279" s="6"/>
+      <c r="C279" s="7"/>
+      <c r="J279" s="5"/>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B280" s="6"/>
+      <c r="C280" s="7"/>
+      <c r="J280" s="5"/>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B281" s="6"/>
+      <c r="C281" s="7"/>
+      <c r="J281" s="5"/>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B282" s="6"/>
+      <c r="C282" s="7"/>
+      <c r="J282" s="5"/>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B283" s="6"/>
+      <c r="C283" s="7"/>
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B284" s="6"/>
+      <c r="C284" s="7"/>
+      <c r="J284" s="5"/>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B285" s="6"/>
+      <c r="C285" s="7"/>
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B286" s="6"/>
+      <c r="C286" s="7"/>
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B287" s="6"/>
+      <c r="C287" s="7"/>
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B288" s="6"/>
+      <c r="C288" s="7"/>
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B289" s="6"/>
+      <c r="C289" s="7"/>
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B290" s="6"/>
+      <c r="C290" s="7"/>
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B291" s="6"/>
+      <c r="C291" s="7"/>
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B292" s="6"/>
+      <c r="C292" s="7"/>
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B293" s="6"/>
+      <c r="C293" s="7"/>
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B294" s="6"/>
+      <c r="C294" s="7"/>
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B295" s="6"/>
+      <c r="C295" s="7"/>
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B296" s="6"/>
+      <c r="C296" s="7"/>
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B297" s="6"/>
+      <c r="C297" s="7"/>
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="6"/>
+      <c r="C298" s="7"/>
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B299" s="6"/>
+      <c r="C299" s="7"/>
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="6"/>
+      <c r="C300" s="7"/>
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="6"/>
+      <c r="C301" s="7"/>
+      <c r="J301" s="5"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="6"/>
+      <c r="C302" s="7"/>
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B303" s="6"/>
+      <c r="C303" s="7"/>
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B304" s="6"/>
+      <c r="C304" s="7"/>
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B305" s="6"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7"/>
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B306" s="6"/>
+      <c r="C306" s="7"/>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B307" s="6"/>
+      <c r="C307" s="7"/>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B309" s="6"/>
+      <c r="C309" s="7"/>
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B311" s="6"/>
+      <c r="C311" s="7"/>
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B312" s="6"/>
+      <c r="C312" s="7"/>
+      <c r="J312" s="5"/>
+    </row>
+    <row r="313" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B313" s="6"/>
+      <c r="C313" s="7"/>
+      <c r="J313" s="5"/>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="J314" s="5"/>
+    </row>
+    <row r="315" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="J315" s="5"/>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="J316" s="5"/>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="J318" s="5"/>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="J319" s="5"/>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="J320" s="5"/>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="J321" s="5"/>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="J322" s="5"/>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="J323" s="5"/>
+    </row>
+    <row r="324" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="J324" s="5"/>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="J325" s="5"/>
+    </row>
+    <row r="326" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="J326" s="5"/>
+    </row>
+    <row r="327" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="J327" s="5"/>
+    </row>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="J328" s="5"/>
+    </row>
+    <row r="329" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="J330" s="5"/>
+    </row>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="J331" s="5"/>
+    </row>
+    <row r="332" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="J332" s="5"/>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="J333" s="5"/>
+    </row>
+    <row r="334" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="J334" s="5"/>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="J335" s="5"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="J336" s="5"/>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="J337" s="5"/>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="J338" s="5"/>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="J339" s="5"/>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="J340" s="5"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="J341" s="5"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="J343" s="5"/>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="J344" s="5"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="J345" s="5"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="J349" s="5"/>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="J350" s="5"/>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="J351" s="5"/>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="J352" s="5"/>
+    </row>
+    <row r="353" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="J353" s="5"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="J354" s="5"/>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="J355" s="5"/>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="J356" s="5"/>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="J357" s="5"/>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="J358" s="5"/>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="J359" s="5"/>
+    </row>
+    <row r="360" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="J360" s="5"/>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="J361" s="5"/>
+    </row>
+    <row r="362" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="J362" s="5"/>
+    </row>
+    <row r="363" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="J363" s="5"/>
+    </row>
+    <row r="364" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="J364" s="5"/>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="J365" s="5"/>
+    </row>
+    <row r="366" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="J366" s="5"/>
+    </row>
+    <row r="367" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="J367" s="5"/>
+    </row>
+    <row r="368" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="J368" s="5"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="J369" s="5"/>
+    </row>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="J370" s="5"/>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="J371" s="5"/>
+    </row>
+    <row r="372" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="J372" s="5"/>
+    </row>
+    <row r="373" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="J373" s="5"/>
+    </row>
+    <row r="374" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="J374" s="5"/>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="J375" s="5"/>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="J376" s="5"/>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="J377" s="5"/>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="J378" s="5"/>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="J379" s="5"/>
+    </row>
+    <row r="380" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="J380" s="5"/>
+    </row>
+    <row r="381" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="J381" s="5"/>
+    </row>
+    <row r="382" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="J382" s="5"/>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="J383" s="5"/>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="J384" s="5"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="J385" s="5"/>
+    </row>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="J386" s="5"/>
+    </row>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="J387" s="5"/>
+    </row>
+    <row r="388" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="J388" s="5"/>
+    </row>
+    <row r="389" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="J389" s="5"/>
+    </row>
+    <row r="390" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="J390" s="5"/>
+    </row>
+    <row r="391" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="J391" s="5"/>
+    </row>
+    <row r="392" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="J392" s="5"/>
+    </row>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
+      <c r="J393" s="5"/>
+    </row>
+    <row r="394" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="J394" s="5"/>
+    </row>
+    <row r="395" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+      <c r="J395" s="5"/>
+    </row>
+    <row r="396" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="J396" s="5"/>
+    </row>
+    <row r="397" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="J397" s="5"/>
+    </row>
+    <row r="398" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="J398" s="5"/>
+    </row>
+    <row r="399" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="J399" s="5"/>
+    </row>
+    <row r="400" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="J400" s="5"/>
+    </row>
+    <row r="401" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="J401" s="5"/>
+    </row>
+    <row r="402" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="J402" s="5"/>
+    </row>
+    <row r="403" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="J403" s="5"/>
+    </row>
+    <row r="404" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="J404" s="5"/>
+    </row>
+    <row r="405" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="J405" s="5"/>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="J406" s="5"/>
+    </row>
+    <row r="407" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="J407" s="5"/>
+    </row>
+    <row r="408" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="J408" s="5"/>
+    </row>
+    <row r="409" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="J409" s="5"/>
+    </row>
+    <row r="410" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="J410" s="5"/>
+    </row>
+    <row r="411" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="J411" s="5"/>
+    </row>
+    <row r="412" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="J412" s="5"/>
+    </row>
+    <row r="413" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="J413" s="5"/>
+    </row>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="J414" s="5"/>
+    </row>
+    <row r="415" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="J415" s="5"/>
+    </row>
+    <row r="416" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="J416" s="5"/>
+    </row>
+    <row r="417" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="J417" s="5"/>
+    </row>
+    <row r="418" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="J418" s="5"/>
+    </row>
+    <row r="419" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="J419" s="5"/>
+    </row>
+    <row r="420" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="J420" s="5"/>
+    </row>
+    <row r="421" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="J421" s="5"/>
+    </row>
+    <row r="422" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+      <c r="J422" s="5"/>
+    </row>
+    <row r="423" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+      <c r="J423" s="5"/>
+    </row>
+    <row r="424" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+      <c r="J424" s="5"/>
+    </row>
+    <row r="425" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="J425" s="5"/>
+    </row>
+    <row r="426" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+      <c r="J426" s="5"/>
+    </row>
+    <row r="427" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+      <c r="J427" s="5"/>
+    </row>
+    <row r="428" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
+      <c r="J428" s="5"/>
+    </row>
+    <row r="429" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="J429" s="5"/>
+    </row>
+    <row r="430" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="J430" s="5"/>
+    </row>
+    <row r="431" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+      <c r="J431" s="5"/>
+    </row>
+    <row r="432" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="J432" s="5"/>
+    </row>
+    <row r="433" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
+      <c r="J433" s="5"/>
+    </row>
+    <row r="434" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
+      <c r="J434" s="5"/>
+    </row>
+    <row r="435" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
+      <c r="J435" s="5"/>
+    </row>
+    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
+      <c r="J436" s="5"/>
+    </row>
+    <row r="437" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
+      <c r="J437" s="5"/>
+    </row>
+    <row r="438" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+      <c r="J438" s="5"/>
+    </row>
+    <row r="439" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
+      <c r="J439" s="5"/>
+    </row>
+    <row r="440" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+      <c r="J440" s="5"/>
+    </row>
+    <row r="441" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+      <c r="J441" s="5"/>
+    </row>
+    <row r="442" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+      <c r="J442" s="5"/>
+    </row>
+    <row r="443" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+      <c r="J443" s="5"/>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
+      <c r="J444" s="5"/>
+    </row>
+    <row r="445" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
+      <c r="J445" s="5"/>
+    </row>
+    <row r="446" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
+      <c r="J446" s="5"/>
+    </row>
+    <row r="447" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+      <c r="J447" s="5"/>
+    </row>
+    <row r="448" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+      <c r="J448" s="5"/>
+    </row>
+    <row r="449" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+      <c r="J449" s="5"/>
+    </row>
+    <row r="450" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="J450" s="5"/>
+    </row>
+    <row r="451" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="J451" s="5"/>
+    </row>
+    <row r="452" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+      <c r="J452" s="5"/>
+    </row>
+    <row r="453" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+      <c r="J453" s="5"/>
+    </row>
+    <row r="454" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B454" s="5"/>
+      <c r="C454" s="5"/>
+      <c r="J454" s="5"/>
+    </row>
+    <row r="455" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B455" s="5"/>
+      <c r="C455" s="5"/>
+      <c r="J455" s="5"/>
+    </row>
+    <row r="456" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+      <c r="J456" s="5"/>
+    </row>
+    <row r="457" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+      <c r="J457" s="5"/>
+    </row>
+    <row r="458" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+      <c r="J458" s="5"/>
+    </row>
+    <row r="459" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+      <c r="J459" s="5"/>
+    </row>
+    <row r="460" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+      <c r="J460" s="5"/>
+    </row>
+    <row r="461" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="J461" s="5"/>
+    </row>
+    <row r="462" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
+      <c r="J462" s="5"/>
+    </row>
+    <row r="463" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
+      <c r="J463" s="5"/>
+    </row>
+    <row r="464" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
+      <c r="J464" s="5"/>
+    </row>
+    <row r="465" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+      <c r="J465" s="5"/>
+    </row>
+    <row r="466" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+      <c r="J466" s="5"/>
+    </row>
+    <row r="467" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+      <c r="J467" s="5"/>
+    </row>
+    <row r="468" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+      <c r="J468" s="5"/>
+    </row>
+    <row r="469" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+      <c r="J469" s="5"/>
+    </row>
+    <row r="470" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+      <c r="J470" s="5"/>
+    </row>
+    <row r="471" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+      <c r="J471" s="5"/>
+    </row>
+    <row r="472" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+      <c r="J472" s="5"/>
+    </row>
+    <row r="473" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+      <c r="J473" s="5"/>
+    </row>
+    <row r="474" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+      <c r="J474" s="5"/>
+    </row>
+    <row r="475" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+      <c r="J475" s="5"/>
+    </row>
+    <row r="476" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+      <c r="J476" s="5"/>
+    </row>
+    <row r="477" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+      <c r="J477" s="5"/>
+    </row>
+    <row r="478" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+      <c r="J478" s="5"/>
+    </row>
+    <row r="479" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+      <c r="J479" s="5"/>
+    </row>
+    <row r="480" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B480" s="5"/>
+      <c r="C480" s="5"/>
+      <c r="J480" s="5"/>
+    </row>
+    <row r="481" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B481" s="5"/>
+      <c r="C481" s="5"/>
+      <c r="J481" s="5"/>
+    </row>
+    <row r="482" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B482" s="5"/>
+      <c r="C482" s="5"/>
+      <c r="J482" s="5"/>
+    </row>
+    <row r="483" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
+      <c r="J483" s="5"/>
+    </row>
+    <row r="484" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+      <c r="J484" s="5"/>
+    </row>
+    <row r="485" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+      <c r="J485" s="5"/>
+    </row>
+    <row r="486" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+      <c r="J486" s="5"/>
+    </row>
+    <row r="487" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
+      <c r="J487" s="5"/>
+    </row>
+    <row r="488" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+      <c r="J488" s="5"/>
+    </row>
+    <row r="489" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B489" s="5"/>
+      <c r="C489" s="5"/>
+      <c r="J489" s="5"/>
+    </row>
+    <row r="490" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B490" s="5"/>
+      <c r="C490" s="5"/>
+      <c r="J490" s="5"/>
+    </row>
+    <row r="491" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B491" s="5"/>
+      <c r="C491" s="5"/>
+      <c r="J491" s="5"/>
+    </row>
+    <row r="492" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B492" s="5"/>
+      <c r="C492" s="5"/>
+      <c r="J492" s="5"/>
+    </row>
+    <row r="493" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B493" s="5"/>
+      <c r="C493" s="5"/>
+      <c r="J493" s="5"/>
+    </row>
+    <row r="494" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B494" s="5"/>
+      <c r="C494" s="5"/>
+      <c r="J494" s="5"/>
+    </row>
+    <row r="495" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B495" s="5"/>
+      <c r="C495" s="5"/>
+      <c r="J495" s="5"/>
+    </row>
+    <row r="496" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B496" s="5"/>
+      <c r="C496" s="5"/>
+      <c r="J496" s="5"/>
+    </row>
+    <row r="497" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B497" s="5"/>
+      <c r="C497" s="5"/>
+      <c r="J497" s="5"/>
+    </row>
+    <row r="498" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B498" s="5"/>
+      <c r="C498" s="5"/>
+      <c r="J498" s="5"/>
+    </row>
+    <row r="499" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B499" s="5"/>
+      <c r="C499" s="5"/>
+      <c r="J499" s="5"/>
+    </row>
+    <row r="500" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B500" s="5"/>
+      <c r="C500" s="5"/>
+      <c r="J500" s="5"/>
+    </row>
+    <row r="501" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B501" s="5"/>
+      <c r="C501" s="5"/>
+      <c r="J501" s="5"/>
+    </row>
+    <row r="502" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B502" s="5"/>
+      <c r="C502" s="5"/>
+      <c r="J502" s="5"/>
+    </row>
+    <row r="503" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B503" s="5"/>
+      <c r="C503" s="5"/>
+      <c r="J503" s="5"/>
+    </row>
+    <row r="504" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B504" s="5"/>
+      <c r="C504" s="5"/>
+      <c r="J504" s="5"/>
+    </row>
+    <row r="505" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B505" s="5"/>
+      <c r="C505" s="5"/>
+      <c r="J505" s="5"/>
+    </row>
+    <row r="506" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B506" s="5"/>
+      <c r="C506" s="5"/>
+      <c r="J506" s="5"/>
+    </row>
+    <row r="507" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B507" s="5"/>
+      <c r="C507" s="5"/>
+      <c r="J507" s="5"/>
+    </row>
+    <row r="508" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B508" s="5"/>
+      <c r="C508" s="5"/>
+      <c r="J508" s="5"/>
+    </row>
+    <row r="509" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B509" s="5"/>
+      <c r="C509" s="5"/>
+      <c r="J509" s="5"/>
+    </row>
+    <row r="510" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B510" s="5"/>
+      <c r="C510" s="5"/>
+      <c r="J510" s="5"/>
+    </row>
+    <row r="511" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B511" s="5"/>
+      <c r="C511" s="5"/>
+      <c r="J511" s="5"/>
+    </row>
+    <row r="512" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B512" s="5"/>
+      <c r="C512" s="5"/>
+      <c r="J512" s="5"/>
+    </row>
+    <row r="513" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B513" s="5"/>
+      <c r="C513" s="5"/>
+      <c r="J513" s="5"/>
+    </row>
+    <row r="514" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B514" s="5"/>
+      <c r="C514" s="5"/>
+      <c r="J514" s="5"/>
+    </row>
+    <row r="515" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B515" s="5"/>
+      <c r="C515" s="5"/>
+      <c r="J515" s="5"/>
+    </row>
+    <row r="516" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B516" s="5"/>
+      <c r="C516" s="5"/>
+      <c r="J516" s="5"/>
+    </row>
+    <row r="517" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B517" s="5"/>
+      <c r="C517" s="5"/>
+      <c r="J517" s="5"/>
+    </row>
+    <row r="518" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B518" s="5"/>
+      <c r="C518" s="5"/>
+      <c r="J518" s="5"/>
+    </row>
+    <row r="519" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B519" s="5"/>
+      <c r="C519" s="5"/>
+      <c r="J519" s="5"/>
+    </row>
+    <row r="520" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B520" s="5"/>
+      <c r="C520" s="5"/>
+      <c r="J520" s="5"/>
+    </row>
+    <row r="521" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B521" s="5"/>
+      <c r="C521" s="5"/>
+      <c r="J521" s="5"/>
+    </row>
+    <row r="522" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B522" s="5"/>
+      <c r="C522" s="5"/>
+      <c r="J522" s="5"/>
+    </row>
+    <row r="523" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B523" s="5"/>
+      <c r="C523" s="5"/>
+      <c r="J523" s="5"/>
+    </row>
+    <row r="524" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B524" s="5"/>
+      <c r="C524" s="5"/>
+      <c r="J524" s="5"/>
+    </row>
+    <row r="525" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B525" s="5"/>
+      <c r="C525" s="5"/>
+      <c r="J525" s="5"/>
+    </row>
+    <row r="526" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B526" s="5"/>
+      <c r="C526" s="5"/>
+      <c r="J526" s="5"/>
+    </row>
+    <row r="527" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B527" s="5"/>
+      <c r="C527" s="5"/>
+      <c r="J527" s="5"/>
+    </row>
+    <row r="528" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B528" s="5"/>
+      <c r="C528" s="5"/>
+      <c r="J528" s="5"/>
+    </row>
+    <row r="529" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B529" s="5"/>
+      <c r="C529" s="5"/>
+      <c r="J529" s="5"/>
+    </row>
+    <row r="530" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B530" s="5"/>
+      <c r="C530" s="5"/>
+      <c r="J530" s="5"/>
+    </row>
+    <row r="531" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B531" s="5"/>
+      <c r="C531" s="5"/>
+      <c r="J531" s="5"/>
+    </row>
+    <row r="532" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B532" s="5"/>
+      <c r="C532" s="5"/>
+      <c r="J532" s="5"/>
+    </row>
+    <row r="533" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B533" s="5"/>
+      <c r="C533" s="5"/>
+      <c r="J533" s="5"/>
+    </row>
+    <row r="534" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B534" s="5"/>
+      <c r="C534" s="5"/>
+      <c r="J534" s="5"/>
+    </row>
+    <row r="535" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B535" s="5"/>
+      <c r="C535" s="5"/>
+      <c r="J535" s="5"/>
+    </row>
+    <row r="536" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B536" s="5"/>
+      <c r="C536" s="5"/>
+      <c r="J536" s="5"/>
+    </row>
+    <row r="537" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B537" s="5"/>
+      <c r="C537" s="5"/>
+      <c r="J537" s="5"/>
+    </row>
+    <row r="538" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B538" s="5"/>
+      <c r="C538" s="5"/>
+      <c r="J538" s="5"/>
+    </row>
+    <row r="539" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B539" s="5"/>
+      <c r="C539" s="5"/>
+      <c r="J539" s="5"/>
+    </row>
+    <row r="540" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B540" s="5"/>
+      <c r="C540" s="5"/>
+      <c r="J540" s="5"/>
+    </row>
+    <row r="541" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B541" s="5"/>
+      <c r="C541" s="5"/>
+      <c r="J541" s="5"/>
+    </row>
+    <row r="542" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B542" s="5"/>
+      <c r="C542" s="5"/>
+      <c r="J542" s="5"/>
+    </row>
+    <row r="543" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B543" s="5"/>
+      <c r="C543" s="5"/>
+      <c r="J543" s="5"/>
+    </row>
+    <row r="544" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B544" s="5"/>
+      <c r="C544" s="5"/>
+      <c r="J544" s="5"/>
+    </row>
+    <row r="545" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B545" s="5"/>
+      <c r="C545" s="5"/>
+      <c r="J545" s="5"/>
+    </row>
+    <row r="546" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B546" s="5"/>
+      <c r="C546" s="5"/>
+      <c r="J546" s="5"/>
+    </row>
+    <row r="547" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B547" s="5"/>
+      <c r="C547" s="5"/>
+      <c r="J547" s="5"/>
+    </row>
+    <row r="548" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B548" s="5"/>
+      <c r="C548" s="5"/>
+      <c r="J548" s="5"/>
+    </row>
+    <row r="549" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B549" s="5"/>
+      <c r="C549" s="5"/>
+      <c r="J549" s="5"/>
+    </row>
+    <row r="550" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B550" s="5"/>
+      <c r="C550" s="5"/>
+      <c r="J550" s="5"/>
+    </row>
+    <row r="551" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B551" s="5"/>
+      <c r="C551" s="5"/>
+      <c r="J551" s="5"/>
+    </row>
+    <row r="552" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B552" s="5"/>
+      <c r="C552" s="5"/>
+      <c r="J552" s="5"/>
+    </row>
+    <row r="553" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B553" s="5"/>
+      <c r="C553" s="5"/>
+      <c r="J553" s="5"/>
+    </row>
+    <row r="554" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B554" s="5"/>
+      <c r="C554" s="5"/>
+      <c r="J554" s="5"/>
+    </row>
+    <row r="555" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B555" s="5"/>
+      <c r="C555" s="5"/>
+      <c r="J555" s="5"/>
+    </row>
+    <row r="556" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B556" s="5"/>
+      <c r="C556" s="5"/>
+      <c r="J556" s="5"/>
+    </row>
+    <row r="557" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B557" s="5"/>
+      <c r="C557" s="5"/>
+      <c r="J557" s="5"/>
+    </row>
+    <row r="558" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B558" s="5"/>
+      <c r="C558" s="5"/>
+      <c r="J558" s="5"/>
+    </row>
+    <row r="559" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B559" s="5"/>
+      <c r="C559" s="5"/>
+      <c r="J559" s="5"/>
+    </row>
+    <row r="560" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B560" s="5"/>
+      <c r="C560" s="5"/>
+      <c r="J560" s="5"/>
+    </row>
+    <row r="561" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B561" s="5"/>
+      <c r="C561" s="5"/>
+      <c r="J561" s="5"/>
+    </row>
+    <row r="562" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B562" s="5"/>
+      <c r="C562" s="5"/>
+      <c r="J562" s="5"/>
+    </row>
+    <row r="563" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B563" s="5"/>
+      <c r="C563" s="5"/>
+      <c r="J563" s="5"/>
+    </row>
+    <row r="564" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B564" s="5"/>
+      <c r="C564" s="5"/>
+      <c r="J564" s="5"/>
+    </row>
+    <row r="565" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B565" s="5"/>
+      <c r="C565" s="5"/>
+      <c r="J565" s="5"/>
+    </row>
+    <row r="566" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B566" s="5"/>
+      <c r="C566" s="5"/>
+      <c r="J566" s="5"/>
+    </row>
+    <row r="567" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B567" s="5"/>
+      <c r="C567" s="5"/>
+      <c r="J567" s="5"/>
+    </row>
+    <row r="568" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B568" s="5"/>
+      <c r="C568" s="5"/>
+      <c r="J568" s="5"/>
+    </row>
+    <row r="569" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B569" s="5"/>
+      <c r="C569" s="5"/>
+      <c r="J569" s="5"/>
+    </row>
+    <row r="570" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B570" s="5"/>
+      <c r="C570" s="5"/>
+      <c r="J570" s="5"/>
+    </row>
+    <row r="571" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B571" s="5"/>
+      <c r="C571" s="5"/>
+      <c r="J571" s="5"/>
+    </row>
+    <row r="572" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B572" s="5"/>
+      <c r="C572" s="5"/>
+      <c r="J572" s="5"/>
+    </row>
+    <row r="573" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B573" s="5"/>
+      <c r="C573" s="5"/>
+      <c r="J573" s="5"/>
+    </row>
+    <row r="574" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B574" s="5"/>
+      <c r="C574" s="5"/>
+      <c r="J574" s="5"/>
+    </row>
+    <row r="575" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B575" s="5"/>
+      <c r="C575" s="5"/>
+      <c r="J575" s="5"/>
+    </row>
+    <row r="576" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B576" s="5"/>
+      <c r="C576" s="5"/>
+      <c r="J576" s="5"/>
+    </row>
+    <row r="577" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B577" s="5"/>
+      <c r="C577" s="5"/>
+      <c r="J577" s="5"/>
+    </row>
+    <row r="578" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B578" s="5"/>
+      <c r="C578" s="5"/>
+      <c r="J578" s="5"/>
+    </row>
+    <row r="579" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B579" s="5"/>
+      <c r="C579" s="5"/>
+      <c r="J579" s="5"/>
+    </row>
+    <row r="580" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B580" s="5"/>
+      <c r="C580" s="5"/>
+      <c r="J580" s="5"/>
+    </row>
+    <row r="581" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B581" s="5"/>
+      <c r="C581" s="5"/>
+      <c r="J581" s="5"/>
+    </row>
+    <row r="582" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B582" s="5"/>
+      <c r="C582" s="5"/>
+      <c r="J582" s="5"/>
+    </row>
+    <row r="583" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B583" s="5"/>
+      <c r="C583" s="5"/>
+      <c r="J583" s="5"/>
+    </row>
+    <row r="584" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B584" s="5"/>
+      <c r="C584" s="5"/>
+      <c r="J584" s="5"/>
+    </row>
+    <row r="585" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B585" s="5"/>
+      <c r="C585" s="5"/>
+      <c r="J585" s="5"/>
+    </row>
+    <row r="586" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B586" s="5"/>
+      <c r="C586" s="5"/>
+      <c r="J586" s="5"/>
+    </row>
+    <row r="587" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B587" s="5"/>
+      <c r="C587" s="5"/>
+      <c r="J587" s="5"/>
+    </row>
+    <row r="588" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B588" s="5"/>
+      <c r="C588" s="5"/>
+      <c r="J588" s="5"/>
+    </row>
+    <row r="589" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B589" s="5"/>
+      <c r="C589" s="5"/>
+      <c r="J589" s="5"/>
+    </row>
+    <row r="590" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B590" s="5"/>
+      <c r="C590" s="5"/>
+      <c r="J590" s="5"/>
+    </row>
+    <row r="591" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B591" s="5"/>
+      <c r="C591" s="5"/>
+      <c r="J591" s="5"/>
+    </row>
+    <row r="592" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B592" s="5"/>
+      <c r="C592" s="5"/>
+      <c r="J592" s="5"/>
+    </row>
+    <row r="593" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B593" s="5"/>
+      <c r="C593" s="5"/>
+      <c r="J593" s="5"/>
+    </row>
+    <row r="594" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B594" s="5"/>
+      <c r="C594" s="5"/>
+      <c r="J594" s="5"/>
+    </row>
+    <row r="595" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B595" s="5"/>
+      <c r="C595" s="5"/>
+      <c r="J595" s="5"/>
+    </row>
+    <row r="596" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B596" s="5"/>
+      <c r="C596" s="5"/>
+      <c r="J596" s="5"/>
+    </row>
+    <row r="597" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B597" s="5"/>
+      <c r="C597" s="5"/>
+      <c r="J597" s="5"/>
+    </row>
+    <row r="598" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B598" s="5"/>
+      <c r="C598" s="5"/>
+      <c r="J598" s="5"/>
+    </row>
+    <row r="599" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B599" s="5"/>
+      <c r="C599" s="5"/>
+      <c r="J599" s="5"/>
+    </row>
+    <row r="600" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B600" s="5"/>
+      <c r="C600" s="5"/>
+      <c r="J600" s="5"/>
+    </row>
+    <row r="601" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B601" s="5"/>
+      <c r="C601" s="5"/>
+      <c r="J601" s="5"/>
+    </row>
+    <row r="602" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B602" s="5"/>
+      <c r="C602" s="5"/>
+      <c r="J602" s="5"/>
+    </row>
+    <row r="603" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B603" s="5"/>
+      <c r="C603" s="5"/>
+      <c r="J603" s="5"/>
+    </row>
+    <row r="604" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B604" s="5"/>
+      <c r="C604" s="5"/>
+      <c r="J604" s="5"/>
+    </row>
+    <row r="605" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B605" s="5"/>
+      <c r="C605" s="5"/>
+      <c r="J605" s="5"/>
+    </row>
+    <row r="606" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B606" s="5"/>
+      <c r="C606" s="5"/>
+      <c r="J606" s="5"/>
+    </row>
+    <row r="607" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B607" s="5"/>
+      <c r="C607" s="5"/>
+      <c r="J607" s="5"/>
+    </row>
+    <row r="608" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B608" s="5"/>
+      <c r="C608" s="5"/>
+      <c r="J608" s="5"/>
+    </row>
+    <row r="609" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B609" s="5"/>
+      <c r="C609" s="5"/>
+      <c r="J609" s="5"/>
+    </row>
+    <row r="610" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B610" s="5"/>
+      <c r="C610" s="5"/>
+      <c r="J610" s="5"/>
+    </row>
+    <row r="611" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B611" s="5"/>
+      <c r="C611" s="5"/>
+      <c r="J611" s="5"/>
+    </row>
+    <row r="612" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B612" s="5"/>
+      <c r="C612" s="5"/>
+      <c r="J612" s="5"/>
+    </row>
+    <row r="613" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B613" s="5"/>
+      <c r="C613" s="5"/>
+      <c r="J613" s="5"/>
+    </row>
+    <row r="614" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B614" s="5"/>
+      <c r="C614" s="5"/>
+      <c r="J614" s="5"/>
+    </row>
+    <row r="615" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B615" s="5"/>
+      <c r="C615" s="5"/>
+      <c r="J615" s="5"/>
+    </row>
+    <row r="616" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B616" s="5"/>
+      <c r="C616" s="5"/>
+      <c r="J616" s="5"/>
+    </row>
+    <row r="617" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B617" s="5"/>
+      <c r="C617" s="5"/>
+      <c r="J617" s="5"/>
+    </row>
+    <row r="618" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B618" s="5"/>
+      <c r="C618" s="5"/>
+      <c r="J618" s="5"/>
+    </row>
+    <row r="619" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B619" s="5"/>
+      <c r="C619" s="5"/>
+      <c r="J619" s="5"/>
+    </row>
+    <row r="620" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B620" s="5"/>
+      <c r="C620" s="5"/>
+      <c r="J620" s="5"/>
+    </row>
+    <row r="621" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B621" s="5"/>
+      <c r="C621" s="5"/>
+      <c r="J621" s="5"/>
+    </row>
+    <row r="622" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B622" s="5"/>
+      <c r="C622" s="5"/>
+      <c r="J622" s="5"/>
+    </row>
+    <row r="623" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B623" s="5"/>
+      <c r="C623" s="5"/>
+      <c r="J623" s="5"/>
+    </row>
+    <row r="624" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B624" s="5"/>
+      <c r="C624" s="5"/>
+      <c r="J624" s="5"/>
+    </row>
+    <row r="625" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B625" s="5"/>
+      <c r="C625" s="5"/>
+      <c r="J625" s="5"/>
+    </row>
+    <row r="626" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B626" s="5"/>
+      <c r="C626" s="5"/>
+      <c r="J626" s="5"/>
+    </row>
+    <row r="627" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B627" s="5"/>
+      <c r="C627" s="5"/>
+      <c r="J627" s="5"/>
+    </row>
+    <row r="628" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B628" s="5"/>
+      <c r="C628" s="5"/>
+      <c r="J628" s="5"/>
+    </row>
+    <row r="629" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B629" s="5"/>
+      <c r="C629" s="5"/>
+      <c r="J629" s="5"/>
+    </row>
+    <row r="630" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B630" s="5"/>
+      <c r="C630" s="5"/>
+      <c r="J630" s="5"/>
+    </row>
+    <row r="631" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B631" s="5"/>
+      <c r="C631" s="5"/>
+      <c r="J631" s="5"/>
+    </row>
+    <row r="632" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B632" s="5"/>
+      <c r="C632" s="5"/>
+      <c r="J632" s="5"/>
+    </row>
+    <row r="633" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B633" s="5"/>
+      <c r="C633" s="5"/>
+      <c r="J633" s="5"/>
+    </row>
+    <row r="634" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B634" s="5"/>
+      <c r="C634" s="5"/>
+      <c r="J634" s="5"/>
+    </row>
+    <row r="635" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B635" s="5"/>
+      <c r="C635" s="5"/>
+      <c r="J635" s="5"/>
+    </row>
+    <row r="636" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B636" s="5"/>
+      <c r="C636" s="5"/>
+      <c r="J636" s="5"/>
+    </row>
+    <row r="637" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B637" s="5"/>
+      <c r="C637" s="5"/>
+      <c r="J637" s="5"/>
+    </row>
+    <row r="638" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B638" s="5"/>
+      <c r="C638" s="5"/>
+      <c r="J638" s="5"/>
+    </row>
+    <row r="639" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B639" s="5"/>
+      <c r="C639" s="5"/>
+      <c r="J639" s="5"/>
+    </row>
+    <row r="640" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B640" s="5"/>
+      <c r="C640" s="5"/>
+      <c r="J640" s="5"/>
+    </row>
+    <row r="641" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B641" s="5"/>
+      <c r="C641" s="5"/>
+      <c r="J641" s="5"/>
+    </row>
+    <row r="642" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B642" s="5"/>
+      <c r="C642" s="5"/>
+      <c r="J642" s="5"/>
+    </row>
+    <row r="643" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B643" s="5"/>
+      <c r="C643" s="5"/>
+      <c r="J643" s="5"/>
+    </row>
+    <row r="644" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B644" s="5"/>
+      <c r="C644" s="5"/>
+      <c r="J644" s="5"/>
+    </row>
+    <row r="645" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B645" s="5"/>
+      <c r="C645" s="5"/>
+      <c r="J645" s="5"/>
+    </row>
+    <row r="646" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B646" s="5"/>
+      <c r="C646" s="5"/>
+      <c r="J646" s="5"/>
+    </row>
+    <row r="647" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B647" s="5"/>
+      <c r="C647" s="5"/>
+      <c r="J647" s="5"/>
+    </row>
+    <row r="648" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B648" s="5"/>
+      <c r="C648" s="5"/>
+      <c r="J648" s="5"/>
+    </row>
+    <row r="649" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B649" s="5"/>
+      <c r="C649" s="5"/>
+      <c r="J649" s="5"/>
+    </row>
+    <row r="650" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B650" s="5"/>
+      <c r="C650" s="5"/>
+      <c r="J650" s="5"/>
+    </row>
+    <row r="651" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B651" s="5"/>
+      <c r="C651" s="5"/>
+      <c r="J651" s="5"/>
+    </row>
+    <row r="652" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B652" s="5"/>
+      <c r="C652" s="5"/>
+      <c r="J652" s="5"/>
+    </row>
+    <row r="653" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B653" s="5"/>
+      <c r="C653" s="5"/>
+      <c r="J653" s="5"/>
+    </row>
+    <row r="654" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B654" s="5"/>
+      <c r="C654" s="5"/>
+      <c r="J654" s="5"/>
+    </row>
+    <row r="655" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B655" s="5"/>
+      <c r="C655" s="5"/>
+      <c r="J655" s="5"/>
+    </row>
+    <row r="656" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B656" s="5"/>
+      <c r="C656" s="5"/>
+      <c r="J656" s="5"/>
+    </row>
+    <row r="657" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B657" s="5"/>
+      <c r="C657" s="5"/>
+      <c r="J657" s="5"/>
+    </row>
+    <row r="658" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B658" s="5"/>
+      <c r="C658" s="5"/>
+      <c r="J658" s="5"/>
+    </row>
+    <row r="659" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B659" s="5"/>
+      <c r="C659" s="5"/>
+      <c r="J659" s="5"/>
+    </row>
+    <row r="660" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B660" s="5"/>
+      <c r="C660" s="5"/>
+      <c r="J660" s="5"/>
+    </row>
+    <row r="661" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B661" s="5"/>
+      <c r="C661" s="5"/>
+      <c r="J661" s="5"/>
+    </row>
+    <row r="662" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B662" s="5"/>
+      <c r="C662" s="5"/>
+      <c r="J662" s="5"/>
+    </row>
+    <row r="663" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B663" s="5"/>
+      <c r="C663" s="5"/>
+      <c r="J663" s="5"/>
+    </row>
+    <row r="664" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B664" s="5"/>
+      <c r="C664" s="5"/>
+      <c r="J664" s="5"/>
+    </row>
+    <row r="665" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B665" s="5"/>
+      <c r="C665" s="5"/>
+      <c r="J665" s="5"/>
+    </row>
+    <row r="666" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B666" s="5"/>
+      <c r="C666" s="5"/>
+      <c r="J666" s="5"/>
+    </row>
+    <row r="667" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B667" s="5"/>
+      <c r="C667" s="5"/>
+      <c r="J667" s="5"/>
+    </row>
+    <row r="668" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B668" s="5"/>
+      <c r="C668" s="5"/>
+      <c r="J668" s="5"/>
+    </row>
+    <row r="669" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B669" s="5"/>
+      <c r="C669" s="5"/>
+      <c r="J669" s="5"/>
+    </row>
+    <row r="670" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B670" s="5"/>
+      <c r="C670" s="5"/>
+      <c r="J670" s="5"/>
+    </row>
+    <row r="671" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B671" s="5"/>
+      <c r="C671" s="5"/>
+      <c r="J671" s="5"/>
+    </row>
+    <row r="672" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B672" s="5"/>
+      <c r="C672" s="5"/>
+      <c r="J672" s="5"/>
+    </row>
+    <row r="673" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B673" s="5"/>
+      <c r="C673" s="5"/>
+      <c r="J673" s="5"/>
+    </row>
+    <row r="674" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B674" s="5"/>
+      <c r="C674" s="5"/>
+      <c r="J674" s="5"/>
+    </row>
+    <row r="675" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B675" s="5"/>
+      <c r="C675" s="5"/>
+      <c r="J675" s="5"/>
+    </row>
+    <row r="676" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B676" s="5"/>
+      <c r="C676" s="5"/>
+      <c r="J676" s="5"/>
+    </row>
+    <row r="677" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B677" s="5"/>
+      <c r="C677" s="5"/>
+      <c r="J677" s="5"/>
+    </row>
+    <row r="678" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B678" s="5"/>
+      <c r="C678" s="5"/>
+      <c r="J678" s="5"/>
+    </row>
+    <row r="679" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B679" s="5"/>
+      <c r="C679" s="5"/>
+      <c r="J679" s="5"/>
+    </row>
+    <row r="680" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B680" s="5"/>
+      <c r="C680" s="5"/>
+      <c r="J680" s="5"/>
+    </row>
+    <row r="681" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B681" s="5"/>
+      <c r="C681" s="5"/>
+      <c r="J681" s="5"/>
+    </row>
+    <row r="682" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B682" s="5"/>
+      <c r="C682" s="5"/>
+      <c r="J682" s="5"/>
+    </row>
+    <row r="683" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B683" s="5"/>
+      <c r="C683" s="5"/>
+      <c r="J683" s="5"/>
+    </row>
+    <row r="684" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B684" s="5"/>
+      <c r="C684" s="5"/>
+      <c r="J684" s="5"/>
+    </row>
+    <row r="685" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B685" s="5"/>
+      <c r="C685" s="5"/>
+      <c r="J685" s="5"/>
+    </row>
+    <row r="686" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B686" s="5"/>
+      <c r="C686" s="5"/>
+      <c r="J686" s="5"/>
+    </row>
+    <row r="687" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B687" s="5"/>
+      <c r="C687" s="5"/>
+      <c r="J687" s="5"/>
+    </row>
+    <row r="688" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B688" s="5"/>
+      <c r="C688" s="5"/>
+      <c r="J688" s="5"/>
+    </row>
+    <row r="689" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B689" s="5"/>
+      <c r="C689" s="5"/>
+      <c r="J689" s="5"/>
+    </row>
+    <row r="690" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B690" s="5"/>
+      <c r="C690" s="5"/>
+      <c r="J690" s="5"/>
+    </row>
+    <row r="691" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B691" s="5"/>
+      <c r="C691" s="5"/>
+      <c r="J691" s="5"/>
+    </row>
+    <row r="692" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B692" s="5"/>
+      <c r="C692" s="5"/>
+      <c r="J692" s="5"/>
+    </row>
+    <row r="693" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B693" s="5"/>
+      <c r="C693" s="5"/>
+      <c r="J693" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K693" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A2:A3 I2:K3" numberStoredAsText="1"/>
+    <ignoredError sqref="E1:F1 I1 K1 A1:B1 G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>